--- a/config/Format_Marine_Biotoxin_organisms.xlsx
+++ b/config/Format_Marine_Biotoxin_organisms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B07CA-B185-42F5-8BF8-E927CD389C0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77391A62-DA5F-4B1B-B3FE-DBE5971BB798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15105" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15110" windowHeight="6230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kolumner" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
   <authors>
     <author>Martin Hansson</author>
     <author>Sundqvist Lisa</author>
-    <author>Lindh Markus</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -215,54 +214,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="1" shapeId="0" xr:uid="{16E6D265-0B17-41F8-9588-544C21A7F727}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Provtagningsvolym (l):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Volym som provtagits i liter</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB2" authorId="2" shapeId="0" xr:uid="{D861EA8D-2703-49AD-9E04-3926BF29EE2B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Filtrerad volym (l)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Filtrerad volym för att samla in biomassa, anges i liter</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -288,7 +239,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3674203C-D3FF-4B1C-8990-C67C665A7944}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Ange den tidsperiod som informationen om parametern är giltlig. Om något har ändrats under den tidsperiod som dataleveransen avser lägga till en ny rad med en ny giltlighetstid. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -321,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -403,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +386,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="482">
   <si>
     <t>SHIPC</t>
   </si>
@@ -682,9 +646,6 @@
     <t>GPS</t>
   </si>
   <si>
-    <t>LOQ</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -700,9 +661,6 @@
     <t>2024-01-19</t>
   </si>
   <si>
-    <t>DTR</t>
-  </si>
-  <si>
     <t>FJÄLLBACKA KALVÖSKÄR</t>
   </si>
   <si>
@@ -1750,18 +1708,6 @@
     <t>**</t>
   </si>
   <si>
-    <t>Filtrerad volym (l)</t>
-  </si>
-  <si>
-    <t>FILTVOL</t>
-  </si>
-  <si>
-    <t>Provtagningsvolym (l)</t>
-  </si>
-  <si>
-    <t>SMVOL</t>
-  </si>
-  <si>
     <t>Prov</t>
   </si>
   <si>
@@ -1781,6 +1727,111 @@
   </si>
   <si>
     <t>LMQNT/LOQ?</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>Kortnamn-IOC</t>
+  </si>
+  <si>
+    <t>CAS-nr</t>
+  </si>
+  <si>
+    <t>Toxingrup</t>
+  </si>
+  <si>
+    <t>Johans musslor</t>
+  </si>
+  <si>
+    <t>Scanfjord</t>
+  </si>
+  <si>
+    <t>Bohus havsbruk</t>
+  </si>
+  <si>
+    <t>Börjesson</t>
+  </si>
+  <si>
+    <t>SMHI</t>
+  </si>
+  <si>
+    <t>Giltlig f.r.o.m. (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Giltligt t.o.m. (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>VALIDFR</t>
+  </si>
+  <si>
+    <t>VALIDTO</t>
+  </si>
+  <si>
+    <t>Jodometrisk titrering</t>
+  </si>
+  <si>
+    <t>SS-EN 25 813 (1993)</t>
+  </si>
+  <si>
+    <t>Acetonextraktion + fluorometrisk detektion</t>
+  </si>
+  <si>
+    <t>SS 28146 (1980</t>
+  </si>
+  <si>
+    <t>Etanolextraktion + fluorometrisk detektion</t>
+  </si>
+  <si>
+    <t>Grasshoff et. al., (1999) &amp; HELCOM COMBINE</t>
+  </si>
+  <si>
+    <t>10% (0.02-2), 5% (2-15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utvidgad mätosäkerhet. </t>
+  </si>
+  <si>
+    <t>25% (0.20-1.0), 12% (1.0-100)</t>
+  </si>
+  <si>
+    <t>20% (0.10-1.0), 12% (1.0-100)</t>
+  </si>
+  <si>
+    <t>0.02-15 ml/l</t>
+  </si>
+  <si>
+    <t>0.2-100 µg/l</t>
+  </si>
+  <si>
+    <t>0.1-100 µg/l</t>
+  </si>
+  <si>
+    <t>0.02 ml/l</t>
+  </si>
+  <si>
+    <t>0.2 µg/l</t>
+  </si>
+  <si>
+    <t>0.1 µg/l</t>
+  </si>
+  <si>
+    <t>METDC</t>
+  </si>
+  <si>
+    <t>Metoddokument (text)</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2072,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2099,8 +2150,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2136,6 +2185,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2478,188 +2544,188 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:FW13"/>
+  <dimension ref="A1:FV13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.26953125" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.453125" style="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="18.85546875" style="14" customWidth="1"/>
-    <col min="25" max="26" width="17.85546875" style="14" customWidth="1"/>
-    <col min="27" max="27" width="20.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="17.85546875" style="14" customWidth="1"/>
-    <col min="32" max="32" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.28515625" style="14" customWidth="1"/>
-    <col min="36" max="36" width="29.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="32" style="14" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="20" style="14" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="29.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="26.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="28.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="23.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="30" style="14" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="28.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="30" style="14" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="28.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="16.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="24.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="24.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="26.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="19.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="21.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="17.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="9.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="11.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="21.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="19.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="12" style="14" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="12.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="12.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="29" style="14" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="27.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="19.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="17.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="30.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="178" max="16384" width="12.85546875" style="14"/>
+    <col min="17" max="17" width="4.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="18.81640625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="26.36328125" style="14" customWidth="1"/>
+    <col min="25" max="29" width="17.81640625" style="14" customWidth="1"/>
+    <col min="30" max="30" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.26953125" style="14" customWidth="1"/>
+    <col min="34" max="34" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="27.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="24.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="31.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="25.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="32" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="26.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="28.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="23.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="19.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="17.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="17.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="21.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="23.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="28.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="23.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="28.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="27.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="21.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="22.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="27.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="21.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="22.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="22.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="24.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="19.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="23.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="24.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="10.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="20.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="11.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="26.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="19.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="21.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="9.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="17.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="9.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="20.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="11.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="14.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="19.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="21.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="19.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="13.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="13.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="12.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="13.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="12.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="12.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="13.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="11.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="14.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="11.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="13.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="29" style="14" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="27.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="19.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="17.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="19.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="30.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="28.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="30.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="29.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="177" max="16384" width="12.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:179" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:178" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="10" t="s">
         <v>31</v>
@@ -2702,27 +2768,27 @@
         <v>28</v>
       </c>
       <c r="T1" s="17"/>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="46"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="49" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD1" s="35"/>
       <c r="AE1" s="35" t="s">
-        <v>441</v>
+        <v>25</v>
       </c>
       <c r="AF1" s="35"/>
-      <c r="AG1" s="35" t="s">
-        <v>25</v>
-      </c>
+      <c r="AG1" s="35"/>
       <c r="AH1" s="35"/>
       <c r="AI1" s="35"/>
       <c r="AJ1" s="35"/>
@@ -2866,15 +2932,14 @@
       <c r="FR1" s="35"/>
       <c r="FS1" s="35"/>
       <c r="FT1" s="35"/>
-      <c r="FU1" s="35"/>
-      <c r="FV1" s="18" t="s">
+      <c r="FU1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="FW1" s="19" t="s">
+      <c r="FV1" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:179" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:178" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2903,10 +2968,10 @@
         <v>18</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>59</v>
@@ -2931,10 +2996,10 @@
         <v>68</v>
       </c>
       <c r="V2" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="W2" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>63</v>
@@ -2943,461 +3008,458 @@
         <v>56</v>
       </c>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AA2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="AC2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="AI2" s="51" t="s">
-        <v>449</v>
-      </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AG2" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH2" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI2" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ2" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK2" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AL2" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="AL2" s="43" t="s">
+      <c r="AM2" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="AM2" s="43" t="s">
+      <c r="AN2" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AO2" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AP2" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AQ2" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AR2" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="AR2" s="43" t="s">
+      <c r="AS2" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="AS2" s="43" t="s">
+      <c r="AT2" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AU2" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AV2" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AW2" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="AW2" s="43" t="s">
+      <c r="AX2" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AY2" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="AZ2" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="BA2" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="BA2" s="43" t="s">
+      <c r="BB2" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="BB2" s="43" t="s">
+      <c r="BC2" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="BC2" s="43" t="s">
+      <c r="BD2" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="BD2" s="43" t="s">
+      <c r="BE2" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="BE2" s="43" t="s">
+      <c r="BF2" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="BF2" s="43" t="s">
+      <c r="BG2" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="BG2" s="43" t="s">
+      <c r="BH2" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="BH2" s="43" t="s">
+      <c r="BI2" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="BI2" s="43" t="s">
+      <c r="BJ2" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="BJ2" s="43" t="s">
+      <c r="BK2" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="BK2" s="43" t="s">
+      <c r="BL2" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="BL2" s="43" t="s">
+      <c r="BM2" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="BM2" s="43" t="s">
+      <c r="BN2" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="BN2" s="43" t="s">
+      <c r="BO2" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="BO2" s="43" t="s">
+      <c r="BP2" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="BP2" s="43" t="s">
+      <c r="BQ2" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="BQ2" s="43" t="s">
+      <c r="BR2" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="BR2" s="43" t="s">
+      <c r="BS2" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="BS2" s="43" t="s">
+      <c r="BT2" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="BT2" s="43" t="s">
+      <c r="BU2" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="BU2" s="43" t="s">
+      <c r="BV2" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="BV2" s="43" t="s">
+      <c r="BW2" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="BW2" s="43" t="s">
+      <c r="BX2" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="BX2" s="43" t="s">
+      <c r="BY2" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="BY2" s="43" t="s">
+      <c r="BZ2" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="BZ2" s="43" t="s">
+      <c r="CA2" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="CA2" s="43" t="s">
+      <c r="CB2" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="CB2" s="43" t="s">
+      <c r="CC2" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="CC2" s="43" t="s">
+      <c r="CD2" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="CD2" s="43" t="s">
+      <c r="CE2" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="CE2" s="43" t="s">
+      <c r="CF2" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="CF2" s="43" t="s">
+      <c r="CG2" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="CG2" s="43" t="s">
+      <c r="CH2" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="CH2" s="43" t="s">
+      <c r="CI2" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="CI2" s="43" t="s">
+      <c r="CJ2" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="CJ2" s="43" t="s">
+      <c r="CK2" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="CK2" s="43" t="s">
+      <c r="CL2" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="CL2" s="43" t="s">
+      <c r="CM2" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="CM2" s="43" t="s">
+      <c r="CN2" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="CN2" s="43" t="s">
+      <c r="CO2" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="CO2" s="43" t="s">
+      <c r="CP2" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="CP2" s="43" t="s">
+      <c r="CQ2" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="CQ2" s="43" t="s">
+      <c r="CR2" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="CR2" s="43" t="s">
+      <c r="CS2" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="CS2" s="43" t="s">
+      <c r="CT2" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="CT2" s="43" t="s">
+      <c r="CU2" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="CU2" s="43" t="s">
+      <c r="CV2" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="CV2" s="43" t="s">
+      <c r="CW2" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="CW2" s="43" t="s">
+      <c r="CX2" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="CX2" s="43" t="s">
+      <c r="CY2" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="CY2" s="43" t="s">
+      <c r="CZ2" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="CZ2" s="43" t="s">
+      <c r="DA2" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="DA2" s="43" t="s">
+      <c r="DB2" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="DB2" s="43" t="s">
+      <c r="DC2" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="DC2" s="43" t="s">
+      <c r="DD2" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="DD2" s="43" t="s">
+      <c r="DE2" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="DE2" s="43" t="s">
+      <c r="DF2" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="DF2" s="43" t="s">
+      <c r="DG2" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="DG2" s="43" t="s">
+      <c r="DH2" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="DH2" s="43" t="s">
+      <c r="DI2" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="DI2" s="43" t="s">
+      <c r="DJ2" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="DJ2" s="43" t="s">
+      <c r="DK2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="DK2" s="43" t="s">
+      <c r="DL2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="DL2" s="43" t="s">
+      <c r="DM2" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="DM2" s="43" t="s">
+      <c r="DN2" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="DN2" s="43" t="s">
+      <c r="DO2" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="DO2" s="43" t="s">
+      <c r="DP2" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="DP2" s="43" t="s">
+      <c r="DQ2" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="DQ2" s="43" t="s">
+      <c r="DR2" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="DR2" s="43" t="s">
+      <c r="DS2" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="DS2" s="43" t="s">
+      <c r="DT2" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="DT2" s="43" t="s">
+      <c r="DU2" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="DU2" s="43" t="s">
+      <c r="DV2" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="DV2" s="43" t="s">
+      <c r="DW2" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="DW2" s="43" t="s">
+      <c r="DX2" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="DX2" s="43" t="s">
+      <c r="DY2" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="DY2" s="43" t="s">
+      <c r="DZ2" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="DZ2" s="43" t="s">
+      <c r="EA2" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="EA2" s="43" t="s">
+      <c r="EB2" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="EB2" s="43" t="s">
+      <c r="EC2" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="EC2" s="43" t="s">
+      <c r="ED2" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="ED2" s="43" t="s">
+      <c r="EE2" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="EE2" s="43" t="s">
+      <c r="EF2" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="EF2" s="43" t="s">
+      <c r="EG2" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="EG2" s="43" t="s">
+      <c r="EH2" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="EH2" s="43" t="s">
+      <c r="EI2" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="EI2" s="43" t="s">
+      <c r="EJ2" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="EJ2" s="43" t="s">
+      <c r="EK2" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="EK2" s="43" t="s">
+      <c r="EL2" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="EL2" s="43" t="s">
+      <c r="EM2" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="EM2" s="43" t="s">
+      <c r="EN2" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="EN2" s="43" t="s">
+      <c r="EO2" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="EO2" s="43" t="s">
+      <c r="EP2" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="EP2" s="43" t="s">
+      <c r="EQ2" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="EQ2" s="43" t="s">
+      <c r="ER2" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="ER2" s="43" t="s">
+      <c r="ES2" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="ES2" s="43" t="s">
+      <c r="ET2" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="ET2" s="43" t="s">
+      <c r="EU2" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="EU2" s="43" t="s">
+      <c r="EV2" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="EV2" s="43" t="s">
+      <c r="EW2" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="EW2" s="43" t="s">
+      <c r="EX2" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="EX2" s="43" t="s">
+      <c r="EY2" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="EY2" s="43" t="s">
+      <c r="EZ2" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="EZ2" s="43" t="s">
+      <c r="FA2" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="FA2" s="43" t="s">
+      <c r="FB2" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="FB2" s="43" t="s">
+      <c r="FC2" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="FC2" s="43" t="s">
+      <c r="FD2" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="FD2" s="43" t="s">
+      <c r="FE2" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="FE2" s="43" t="s">
+      <c r="FF2" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="FF2" s="43" t="s">
+      <c r="FG2" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="FG2" s="43" t="s">
+      <c r="FH2" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="FH2" s="43" t="s">
+      <c r="FI2" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="FI2" s="43" t="s">
+      <c r="FJ2" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="FJ2" s="43" t="s">
+      <c r="FK2" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="FK2" s="43" t="s">
+      <c r="FL2" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="FL2" s="43" t="s">
+      <c r="FM2" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="FM2" s="43" t="s">
+      <c r="FN2" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="FN2" s="43" t="s">
+      <c r="FO2" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="FO2" s="43" t="s">
+      <c r="FP2" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="FP2" s="43" t="s">
+      <c r="FQ2" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="FQ2" s="43" t="s">
+      <c r="FR2" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="FR2" s="43" t="s">
+      <c r="FS2" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="FS2" s="43" t="s">
+      <c r="FT2" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="FT2" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="FU2" s="43" t="s">
-        <v>303</v>
+      <c r="FU2" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="FV2" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="FW2" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:179" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:178" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
@@ -3447,10 +3509,10 @@
         <v>10</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S3" s="23" t="s">
         <v>57</v>
@@ -3462,10 +3524,10 @@
         <v>27</v>
       </c>
       <c r="V3" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X3" s="36" t="s">
         <v>7</v>
@@ -3476,463 +3538,460 @@
       <c r="Z3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AA3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC3" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF3" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="AG3" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AC3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD3" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="AE3" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="AF3" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG3" s="23" t="s">
-        <v>117</v>
-      </c>
       <c r="AH3" s="34" t="s">
-        <v>447</v>
-      </c>
-      <c r="AI3" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="AJ3" s="44" t="s">
+        <v>480</v>
+      </c>
+      <c r="AI3" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ3" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK3" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="AK3" s="44" t="s">
+      <c r="AL3" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="AL3" s="44" t="s">
+      <c r="AM3" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="AM3" s="44" t="s">
+      <c r="AN3" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="AN3" s="44" t="s">
+      <c r="AO3" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="AO3" s="44" t="s">
+      <c r="AP3" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="AP3" s="44" t="s">
+      <c r="AQ3" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="AQ3" s="44" t="s">
+      <c r="AR3" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="AR3" s="44" t="s">
+      <c r="AS3" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="AS3" s="44" t="s">
+      <c r="AT3" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="AT3" s="44" t="s">
+      <c r="AU3" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="AU3" s="44" t="s">
+      <c r="AV3" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="AV3" s="44" t="s">
+      <c r="AW3" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="AW3" s="44" t="s">
+      <c r="AX3" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="AX3" s="44" t="s">
+      <c r="AY3" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="AY3" s="44" t="s">
+      <c r="AZ3" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="AZ3" s="44" t="s">
+      <c r="BA3" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="BA3" s="44" t="s">
+      <c r="BB3" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="BB3" s="44" t="s">
+      <c r="BC3" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="BC3" s="44" t="s">
+      <c r="BD3" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="BD3" s="44" t="s">
+      <c r="BE3" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="BE3" s="44" t="s">
+      <c r="BF3" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="BF3" s="44" t="s">
+      <c r="BG3" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="BG3" s="44" t="s">
+      <c r="BH3" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="BH3" s="44" t="s">
+      <c r="BI3" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="BI3" s="44" t="s">
+      <c r="BJ3" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="BJ3" s="44" t="s">
+      <c r="BK3" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="BK3" s="44" t="s">
+      <c r="BL3" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="BL3" s="44" t="s">
+      <c r="BM3" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="BM3" s="44" t="s">
+      <c r="BN3" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="BN3" s="44" t="s">
+      <c r="BO3" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="BO3" s="44" t="s">
+      <c r="BP3" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="BP3" s="44" t="s">
+      <c r="BQ3" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="BQ3" s="44" t="s">
+      <c r="BR3" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="BR3" s="44" t="s">
+      <c r="BS3" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="BS3" s="44" t="s">
+      <c r="BT3" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BT3" s="44" t="s">
+      <c r="BU3" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="BU3" s="44" t="s">
+      <c r="BV3" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="BV3" s="44" t="s">
+      <c r="BW3" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="BW3" s="44" t="s">
+      <c r="BX3" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="BX3" s="44" t="s">
+      <c r="BY3" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="BY3" s="44" t="s">
+      <c r="BZ3" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="BZ3" s="44" t="s">
+      <c r="CA3" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="CA3" s="44" t="s">
+      <c r="CB3" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="CB3" s="44" t="s">
+      <c r="CC3" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="CD3" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="CE3" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="CF3" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="CG3" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="CC3" s="44" t="s">
+      <c r="CH3" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="CD3" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="CE3" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="CF3" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="CG3" s="44" t="s">
+      <c r="CI3" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="CJ3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="CK3" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="CL3" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="CM3" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="CN3" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="CO3" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="CP3" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="CQ3" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="CR3" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="CS3" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="CT3" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="CU3" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="CV3" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="CW3" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="CX3" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="CY3" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="CZ3" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="DA3" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="DB3" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="DC3" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="DD3" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="DE3" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="DF3" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="DG3" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="DH3" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="DI3" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="DJ3" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="DK3" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="DL3" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="DM3" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="DN3" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="DO3" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP3" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="DQ3" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="DR3" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="DS3" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="DT3" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="DU3" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="DV3" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="DW3" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="DX3" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="DY3" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="DZ3" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="EA3" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="EB3" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="CH3" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="CI3" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="CJ3" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="CK3" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="CL3" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="CM3" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="CN3" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="CO3" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="CP3" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="CQ3" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="CR3" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="CS3" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="CT3" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="CU3" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="CV3" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="CW3" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="CX3" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="CY3" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="CZ3" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="DA3" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="DB3" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="DC3" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="DD3" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="DE3" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="DF3" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="DG3" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="DH3" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="DI3" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="DJ3" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="DK3" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="DL3" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="DM3" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="DN3" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO3" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="DP3" s="44" t="s">
-        <v>382</v>
-      </c>
-      <c r="DQ3" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="DR3" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="DS3" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="DT3" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="DU3" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="DV3" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="DW3" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="DX3" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="DY3" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="DZ3" s="44" t="s">
+      <c r="EC3" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="EA3" s="44" t="s">
+      <c r="ED3" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="EB3" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="EC3" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="ED3" s="44" t="s">
+      <c r="EE3" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="EE3" s="44" t="s">
+      <c r="EF3" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="EF3" s="44" t="s">
+      <c r="EG3" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="EG3" s="44" t="s">
+      <c r="EH3" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="EH3" s="44" t="s">
+      <c r="EI3" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="EI3" s="44" t="s">
+      <c r="EJ3" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="EJ3" s="44" t="s">
+      <c r="EK3" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="EK3" s="44" t="s">
+      <c r="EL3" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="EL3" s="44" t="s">
+      <c r="EM3" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="EM3" s="44" t="s">
+      <c r="EN3" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="EN3" s="44" t="s">
+      <c r="EO3" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="EO3" s="44" t="s">
+      <c r="EP3" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="EP3" s="44" t="s">
+      <c r="EQ3" s="42" t="s">
         <v>406</v>
       </c>
-      <c r="EQ3" s="44" t="s">
+      <c r="ER3" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="ER3" s="44" t="s">
+      <c r="ES3" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="ES3" s="44" t="s">
+      <c r="ET3" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="ET3" s="44" t="s">
+      <c r="EU3" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="EU3" s="44" t="s">
+      <c r="EV3" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="EV3" s="44" t="s">
+      <c r="EW3" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="EW3" s="44" t="s">
+      <c r="EX3" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="EX3" s="44" t="s">
+      <c r="EY3" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="EY3" s="44" t="s">
+      <c r="EZ3" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="EZ3" s="44" t="s">
+      <c r="FA3" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="FA3" s="44" t="s">
+      <c r="FB3" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="FB3" s="44" t="s">
+      <c r="FC3" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="FC3" s="44" t="s">
+      <c r="FD3" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="FD3" s="44" t="s">
+      <c r="FE3" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="FE3" s="44" t="s">
+      <c r="FF3" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="FF3" s="44" t="s">
+      <c r="FG3" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="FG3" s="44" t="s">
+      <c r="FH3" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="FH3" s="44" t="s">
+      <c r="FI3" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="FI3" s="44" t="s">
+      <c r="FJ3" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="FJ3" s="44" t="s">
+      <c r="FK3" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="FK3" s="44" t="s">
+      <c r="FL3" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="FL3" s="44" t="s">
+      <c r="FM3" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="FM3" s="44" t="s">
+      <c r="FN3" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="FN3" s="44" t="s">
+      <c r="FO3" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="FO3" s="44" t="s">
+      <c r="FP3" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="FP3" s="44" t="s">
+      <c r="FQ3" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="FQ3" s="44" t="s">
+      <c r="FR3" s="42" t="s">
         <v>433</v>
       </c>
-      <c r="FR3" s="44" t="s">
+      <c r="FS3" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="FS3" s="44" t="s">
+      <c r="FT3" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="FT3" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="FU3" s="44" t="s">
-        <v>437</v>
-      </c>
+      <c r="FU3" s="25"/>
       <c r="FV3" s="25"/>
-      <c r="FW3" s="25"/>
-    </row>
-    <row r="4" spans="1:179" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:178" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>78</v>
       </c>
@@ -3949,31 +4008,31 @@
         <v>81</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>74</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R4" s="14" t="s">
         <v>73</v>
@@ -3982,7 +4041,7 @@
         <v>84</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V4" s="14" t="s">
         <v>74</v>
@@ -3994,27 +4053,28 @@
         <v>79</v>
       </c>
       <c r="Y4" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z4" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="AC4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="AF4" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH4" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:179" x14ac:dyDescent="0.25">
+      <c r="AI4" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:178" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>78</v>
       </c>
@@ -4025,37 +4085,37 @@
         <v>79</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>85</v>
       </c>
       <c r="M5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R5" s="14" t="s">
         <v>73</v>
@@ -4064,39 +4124,40 @@
         <v>84</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X5" s="32" t="s">
         <v>79</v>
       </c>
       <c r="Y5" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z5" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="AC5" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD5" s="14" t="s">
         <v>110</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH5" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:179" x14ac:dyDescent="0.25">
+      <c r="AI5" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:178" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>78</v>
       </c>
@@ -4107,37 +4168,37 @@
         <v>79</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>85</v>
       </c>
       <c r="M6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>74</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R6" s="14" t="s">
         <v>73</v>
@@ -4146,39 +4207,40 @@
         <v>84</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>70</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X6" s="32" t="s">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Y6" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z6" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="AC6" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD6" s="14" t="s">
         <v>110</v>
       </c>
       <c r="AF6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH6" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:179" x14ac:dyDescent="0.25">
+      <c r="AI6" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:178" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>78</v>
       </c>
@@ -4189,37 +4251,37 @@
         <v>79</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>85</v>
       </c>
       <c r="M7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>74</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>73</v>
@@ -4228,39 +4290,40 @@
         <v>84</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X7" s="32" t="s">
         <v>79</v>
       </c>
       <c r="Y7" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z7" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="AC7" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE7" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="AF7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH7" s="14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:179" x14ac:dyDescent="0.25">
+      <c r="AI7" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:178" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>78</v>
       </c>
@@ -4271,37 +4334,37 @@
         <v>79</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>85</v>
       </c>
       <c r="M8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="O8" s="14" t="s">
         <v>74</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R8" s="14" t="s">
         <v>73</v>
@@ -4310,39 +4373,43 @@
         <v>84</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X8" s="32" t="s">
         <v>79</v>
       </c>
       <c r="Y8" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z8" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="AC8" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE8" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="AF8" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH8" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:179" x14ac:dyDescent="0.25">
+      <c r="AI8" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="AJ8" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:178" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4353,37 +4420,37 @@
         <v>79</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>85</v>
       </c>
       <c r="M9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="O9" s="14" t="s">
         <v>74</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R9" s="14" t="s">
         <v>73</v>
@@ -4392,39 +4459,43 @@
         <v>84</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X9" s="32" t="s">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="Y9" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z9" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="AC9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE9" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH9" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:179" x14ac:dyDescent="0.25">
+      <c r="AI9" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ9" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:178" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>78</v>
       </c>
@@ -4441,72 +4512,70 @@
         <v>81</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J10" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>147</v>
-      </c>
       <c r="M10" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N10" s="37">
         <v>144</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R10" s="14" t="s">
         <v>71</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X10" s="32" t="s">
         <v>79</v>
       </c>
       <c r="Y10" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z10" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="AC10" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE10" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH10" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:179" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:178" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>78</v>
       </c>
@@ -4517,78 +4586,76 @@
         <v>79</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="K11" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>85</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N11" s="37">
         <v>144</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R11" s="14" t="s">
         <v>71</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X11" s="32" t="s">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Y11" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z11" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="AA11" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="AC11" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD11" s="14" t="s">
         <v>110</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH11" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:179" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:178" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>78</v>
       </c>
@@ -4599,78 +4666,76 @@
         <v>79</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H12" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="K12" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>85</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N12" s="37">
         <v>144</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R12" s="14" t="s">
         <v>71</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X12" s="32" t="s">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Y12" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z12" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="AA12" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="AC12" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD12" s="14" t="s">
         <v>110</v>
       </c>
       <c r="AF12" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH12" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:179" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:178" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>78</v>
       </c>
@@ -4681,74 +4746,72 @@
         <v>79</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>97</v>
-      </c>
       <c r="K13" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>85</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N13" s="37">
         <v>144</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R13" s="14" t="s">
         <v>71</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V13" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="W13" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X13" s="32" t="s">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="Y13" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z13" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="AC13" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE13" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH13" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4763,815 +4826,1209 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Blad2"/>
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:U145"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="20.85546875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="43" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.54296875" style="1" customWidth="1"/>
+    <col min="9" max="15" width="20.81640625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="31.08984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.453125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="28"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="R3" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="64">
+        <v>41456</v>
+      </c>
+      <c r="D4" s="64">
+        <v>41639</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B5" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="T5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B6" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>452</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="T6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B7" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B8" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B9" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="T9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B10" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="T10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="P5" s="1" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B11" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="T11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B12" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="54" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B13" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>465</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="P14" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q14" s="69" t="s">
+        <v>477</v>
+      </c>
+      <c r="R14" s="70"/>
+      <c r="S14" s="67" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="67" t="s">
+        <v>466</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>467</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="68" t="s">
+        <v>472</v>
+      </c>
+      <c r="P15" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q15" s="69" t="s">
+        <v>478</v>
+      </c>
+      <c r="R15" s="70"/>
+      <c r="S15" s="67" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="67" t="s">
+        <v>468</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>469</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="68" t="s">
+        <v>473</v>
+      </c>
+      <c r="P16" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q16" s="69" t="s">
+        <v>479</v>
+      </c>
+      <c r="R16" s="70"/>
+      <c r="S16" s="67" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="51" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="51" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="51" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="53" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="51" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="53" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="51" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="51" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="51" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="51" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="51" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="51" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="53" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="51" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="51" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="51" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="51" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="53" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="51" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="53" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="51" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="53" t="s">
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="51" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="53" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="53" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="55" t="s">
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="54" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="56" t="s">
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="51" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="53" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="51" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="53" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="51" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="53" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="51" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="53" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="C50"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="51" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="53" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="51" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="53" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="55" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="55" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="57" t="s">
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="C56"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="55" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="57" t="s">
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="56" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="58" t="s">
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="57" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="59" t="s">
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="C60"/>
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="58" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="60" t="s">
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62" s="55" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="57" t="s">
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63" s="55" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="57" t="s">
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" s="55" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="57" t="s">
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65" s="55" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="57" t="s">
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66" s="55" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="57" t="s">
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67" s="55" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="57" t="s">
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" s="55" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="57" t="s">
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69" s="55" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="57" t="s">
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="57" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="59" t="s">
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71" s="56" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="58" t="s">
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="55" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="57" t="s">
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73" s="55" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="57" t="s">
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="55" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="57" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="61"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="61"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="61"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="61"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="61"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="61"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="61"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="61"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="61"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="61"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="61"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="61"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="61"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="61"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="61"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="61"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="61"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="61"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="61"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="61"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="61"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="62"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="62"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="61"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="61"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="61"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="61"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="61"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="61"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="62"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="62"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="62"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="62"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="62"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="62"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="62"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="62"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="63"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="63"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="64"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="64"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="62"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="62"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="65"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="65"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="62"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="62"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="62"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="62"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="62"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="62"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="62"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="62"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="62"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="62"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="62"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="62"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="62"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="62"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="62"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="62"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="64"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="64"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="63"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="63"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="62"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="62"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="62"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="62"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="62"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="62"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98" s="59"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="59"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="59"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="59"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B105" s="60"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="60"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B109" s="60"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="60"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B110" s="60"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B111" s="60"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="61"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B114" s="62"/>
+      <c r="C114" s="62"/>
+      <c r="D114" s="62"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B115" s="62"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B116" s="60"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="60"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B117" s="60"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B118" s="63"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B119" s="63"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="63"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="60"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B121" s="60"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="60"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B122" s="60"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="60"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B123" s="60"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="60"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B124" s="60"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B125" s="60"/>
+      <c r="C125" s="60"/>
+      <c r="D125" s="60"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B126" s="60"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="60"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B127" s="60"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B128" s="60"/>
+      <c r="C128" s="60"/>
+      <c r="D128" s="60"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B129" s="60"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="60"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B130" s="60"/>
+      <c r="C130" s="60"/>
+      <c r="D130" s="60"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B131" s="60"/>
+      <c r="C131" s="60"/>
+      <c r="D131" s="60"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B132" s="60"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B133" s="60"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="60"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B134" s="60"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="60"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B135" s="60"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="60"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B136" s="62"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="62"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B137" s="62"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="62"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B138" s="61"/>
+      <c r="C138" s="61"/>
+      <c r="D138" s="61"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B139" s="61"/>
+      <c r="C139" s="61"/>
+      <c r="D139" s="61"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B140" s="60"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="60"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B141" s="60"/>
+      <c r="C141" s="60"/>
+      <c r="D141" s="60"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B142" s="60"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B143" s="60"/>
+      <c r="C143" s="60"/>
+      <c r="D143" s="60"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B144" s="60"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0" pivotTables="0"/>

--- a/config/Format_Marine_Biotoxin_organisms.xlsx
+++ b/config/Format_Marine_Biotoxin_organisms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77391A62-DA5F-4B1B-B3FE-DBE5971BB798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8319EFCD-2935-4588-9246-2B0141D11AFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15110" windowHeight="6230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15105" windowHeight="6225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kolumner" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="1" shapeId="0" xr:uid="{068E30FC-9962-42FB-A361-FC8CE200B30D}">
+    <comment ref="W2" authorId="1" shapeId="0" xr:uid="{068E30FC-9962-42FB-A361-FC8CE200B30D}">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="1" shapeId="0" xr:uid="{9A359DE2-7EC8-4CBB-BF45-A7F8B35F2A8B}">
+    <comment ref="X2" authorId="1" shapeId="0" xr:uid="{9A359DE2-7EC8-4CBB-BF45-A7F8B35F2A8B}">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{D4CB56F6-2079-4361-A83F-35BB86215D30}">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{D4CB56F6-2079-4361-A83F-35BB86215D30}">
       <text>
         <r>
           <rPr>
@@ -386,7 +386,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="482">
   <si>
     <t>SHIPC</t>
   </si>
@@ -1753,18 +1753,6 @@
     <t>Toxingrup</t>
   </si>
   <si>
-    <t>Johans musslor</t>
-  </si>
-  <si>
-    <t>Scanfjord</t>
-  </si>
-  <si>
-    <t>Bohus havsbruk</t>
-  </si>
-  <si>
-    <t>Börjesson</t>
-  </si>
-  <si>
     <t>SMHI</t>
   </si>
   <si>
@@ -1832,6 +1820,18 @@
   </si>
   <si>
     <t>Metoddokument (text)</t>
+  </si>
+  <si>
+    <t>153_1</t>
+  </si>
+  <si>
+    <t>153_2</t>
+  </si>
+  <si>
+    <t>153_3</t>
+  </si>
+  <si>
+    <t>Area-position mapping number</t>
   </si>
 </sst>
 </file>
@@ -2544,188 +2544,188 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:FV13"/>
+  <dimension ref="A1:FW15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="18.81640625" style="14" customWidth="1"/>
-    <col min="24" max="24" width="26.36328125" style="14" customWidth="1"/>
-    <col min="25" max="29" width="17.81640625" style="14" customWidth="1"/>
-    <col min="30" max="30" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.26953125" style="14" customWidth="1"/>
-    <col min="34" max="34" width="20" style="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="27.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="24.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="31.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="25.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="32" style="14" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20" style="14" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="26.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="28.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="23.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="19.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="17.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="17.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="17.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="21.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="30" style="14" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="23.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="28.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="30" style="14" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="23.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="28.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="16.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="27.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="21.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="22.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="27.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="21.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="22.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="22.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="15.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="15.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="24.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="19.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="23.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="12.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="24.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="12.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="10.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="20.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="11.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="26.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="19.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="21.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="9.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="17.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="9.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="20.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="11.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="13.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="11.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="11.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="16" style="14" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="14.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="21.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="19.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="21.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="19.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="13.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="13.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="12.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="12" style="14" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="13.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="12.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="12.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="13.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="11.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="14.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="11.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="13.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="13.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="29" style="14" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="27.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="19.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="17.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="19.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="17.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="30.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="28.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="30.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="29.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="177" max="16384" width="12.81640625" style="14"/>
+    <col min="12" max="12" width="31.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="18.85546875" style="14" customWidth="1"/>
+    <col min="25" max="25" width="26.42578125" style="14" customWidth="1"/>
+    <col min="26" max="31" width="17.85546875" style="14" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.28515625" style="14" customWidth="1"/>
+    <col min="35" max="35" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.7109375" style="14" customWidth="1"/>
+    <col min="37" max="37" width="24.28515625" style="14" customWidth="1"/>
+    <col min="38" max="38" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17" style="14" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="32" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="20" style="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="29.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="26.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="28.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="23.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="26" style="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="28.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="28.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="16.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="27.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="24.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="23.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="24.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="26.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="19.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="21.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="17.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="9.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="21.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="21.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="19.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="13.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="12.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="13.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="29" style="14" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="27.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="19.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="17.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="30.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="178" max="16384" width="12.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:178" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:179" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="10" t="s">
         <v>31</v>
@@ -2762,32 +2762,32 @@
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
-      <c r="Q1" s="17"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="17"/>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="17"/>
+      <c r="V1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="44"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="47" t="s">
+      <c r="W1" s="44"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="Y1" s="43"/>
       <c r="Z1" s="43"/>
-      <c r="AA1" s="46"/>
+      <c r="AA1" s="43"/>
       <c r="AB1" s="46"/>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35" t="s">
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="35"/>
       <c r="AI1" s="35"/>
@@ -2932,14 +2932,15 @@
       <c r="FR1" s="35"/>
       <c r="FS1" s="35"/>
       <c r="FT1" s="35"/>
-      <c r="FU1" s="18" t="s">
+      <c r="FU1" s="35"/>
+      <c r="FV1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="FV1" s="19" t="s">
+      <c r="FW1" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:178" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:179" s="40" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2978,488 +2979,489 @@
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="W2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="X2" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC2" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
-      <c r="AF2" s="48" t="s">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AH2" s="49" t="s">
         <v>443</v>
       </c>
-      <c r="AH2" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="AJ2" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="AK2" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="AK2" s="41" t="s">
+      <c r="AL2" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="AL2" s="41" t="s">
+      <c r="AM2" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="AM2" s="41" t="s">
+      <c r="AN2" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="AN2" s="41" t="s">
+      <c r="AO2" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="AO2" s="41" t="s">
+      <c r="AP2" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="AP2" s="41" t="s">
+      <c r="AQ2" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="AQ2" s="41" t="s">
+      <c r="AR2" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="AR2" s="41" t="s">
+      <c r="AS2" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="AS2" s="41" t="s">
+      <c r="AT2" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="AT2" s="41" t="s">
+      <c r="AU2" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="AU2" s="41" t="s">
+      <c r="AV2" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="AV2" s="41" t="s">
+      <c r="AW2" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="AW2" s="41" t="s">
+      <c r="AX2" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="AX2" s="41" t="s">
+      <c r="AY2" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="AY2" s="41" t="s">
+      <c r="AZ2" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="AZ2" s="41" t="s">
+      <c r="BA2" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="BA2" s="41" t="s">
+      <c r="BB2" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="BB2" s="41" t="s">
+      <c r="BC2" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="BC2" s="41" t="s">
+      <c r="BD2" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="BD2" s="41" t="s">
+      <c r="BE2" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="BE2" s="41" t="s">
+      <c r="BF2" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="BF2" s="41" t="s">
+      <c r="BG2" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="BG2" s="41" t="s">
+      <c r="BH2" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="BH2" s="41" t="s">
+      <c r="BI2" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="BI2" s="41" t="s">
+      <c r="BJ2" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="BJ2" s="41" t="s">
+      <c r="BK2" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="BK2" s="41" t="s">
+      <c r="BL2" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="BL2" s="41" t="s">
+      <c r="BM2" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="BM2" s="41" t="s">
+      <c r="BN2" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="BN2" s="41" t="s">
+      <c r="BO2" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="BO2" s="41" t="s">
+      <c r="BP2" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="BP2" s="41" t="s">
+      <c r="BQ2" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="BQ2" s="41" t="s">
+      <c r="BR2" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="BR2" s="41" t="s">
+      <c r="BS2" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="BS2" s="41" t="s">
+      <c r="BT2" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="BT2" s="41" t="s">
+      <c r="BU2" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="BU2" s="41" t="s">
+      <c r="BV2" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="BV2" s="41" t="s">
+      <c r="BW2" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="BW2" s="41" t="s">
+      <c r="BX2" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="BX2" s="41" t="s">
+      <c r="BY2" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="BY2" s="41" t="s">
+      <c r="BZ2" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="BZ2" s="41" t="s">
+      <c r="CA2" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="CA2" s="41" t="s">
+      <c r="CB2" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="CB2" s="41" t="s">
+      <c r="CC2" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="CC2" s="41" t="s">
+      <c r="CD2" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="CD2" s="41" t="s">
+      <c r="CE2" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="CE2" s="41" t="s">
+      <c r="CF2" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="CF2" s="41" t="s">
+      <c r="CG2" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="CG2" s="41" t="s">
+      <c r="CH2" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="CH2" s="41" t="s">
+      <c r="CI2" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="CI2" s="41" t="s">
+      <c r="CJ2" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="CJ2" s="41" t="s">
+      <c r="CK2" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="CK2" s="41" t="s">
+      <c r="CL2" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="CL2" s="41" t="s">
+      <c r="CM2" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="CM2" s="41" t="s">
+      <c r="CN2" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="CN2" s="41" t="s">
+      <c r="CO2" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="CO2" s="41" t="s">
+      <c r="CP2" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="CP2" s="41" t="s">
+      <c r="CQ2" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="CQ2" s="41" t="s">
+      <c r="CR2" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="CR2" s="41" t="s">
+      <c r="CS2" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="CS2" s="41" t="s">
+      <c r="CT2" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="CT2" s="41" t="s">
+      <c r="CU2" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="CU2" s="41" t="s">
+      <c r="CV2" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="CV2" s="41" t="s">
+      <c r="CW2" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="CW2" s="41" t="s">
+      <c r="CX2" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="CX2" s="41" t="s">
+      <c r="CY2" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="CY2" s="41" t="s">
+      <c r="CZ2" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="CZ2" s="41" t="s">
+      <c r="DA2" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="DA2" s="41" t="s">
+      <c r="DB2" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="DB2" s="41" t="s">
+      <c r="DC2" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="DC2" s="41" t="s">
+      <c r="DD2" s="41" t="s">
         <v>232</v>
       </c>
-      <c r="DD2" s="41" t="s">
+      <c r="DE2" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="DE2" s="41" t="s">
+      <c r="DF2" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="DF2" s="41" t="s">
+      <c r="DG2" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="DG2" s="41" t="s">
+      <c r="DH2" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="DH2" s="41" t="s">
+      <c r="DI2" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="DI2" s="41" t="s">
+      <c r="DJ2" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="DJ2" s="41" t="s">
+      <c r="DK2" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="DK2" s="41" t="s">
+      <c r="DL2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="DL2" s="41" t="s">
+      <c r="DM2" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="DM2" s="41" t="s">
+      <c r="DN2" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="DN2" s="41" t="s">
+      <c r="DO2" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="DO2" s="41" t="s">
+      <c r="DP2" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="DP2" s="41" t="s">
+      <c r="DQ2" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="DQ2" s="41" t="s">
+      <c r="DR2" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="DR2" s="41" t="s">
+      <c r="DS2" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="DS2" s="41" t="s">
+      <c r="DT2" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="DT2" s="41" t="s">
+      <c r="DU2" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="DU2" s="41" t="s">
+      <c r="DV2" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="DV2" s="41" t="s">
+      <c r="DW2" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="DW2" s="41" t="s">
+      <c r="DX2" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="DX2" s="41" t="s">
+      <c r="DY2" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="DY2" s="41" t="s">
+      <c r="DZ2" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="DZ2" s="41" t="s">
+      <c r="EA2" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="EA2" s="41" t="s">
+      <c r="EB2" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="EB2" s="41" t="s">
+      <c r="EC2" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="EC2" s="41" t="s">
+      <c r="ED2" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="ED2" s="41" t="s">
+      <c r="EE2" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="EE2" s="41" t="s">
+      <c r="EF2" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="EF2" s="41" t="s">
+      <c r="EG2" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="EG2" s="41" t="s">
+      <c r="EH2" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="EH2" s="41" t="s">
+      <c r="EI2" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="EI2" s="41" t="s">
+      <c r="EJ2" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="EJ2" s="41" t="s">
+      <c r="EK2" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="EK2" s="41" t="s">
+      <c r="EL2" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="EL2" s="41" t="s">
+      <c r="EM2" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="EM2" s="41" t="s">
+      <c r="EN2" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="EN2" s="41" t="s">
+      <c r="EO2" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="EO2" s="41" t="s">
+      <c r="EP2" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="EP2" s="41" t="s">
+      <c r="EQ2" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="EQ2" s="41" t="s">
+      <c r="ER2" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="ER2" s="41" t="s">
+      <c r="ES2" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="ES2" s="41" t="s">
+      <c r="ET2" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="ET2" s="41" t="s">
+      <c r="EU2" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="EU2" s="41" t="s">
+      <c r="EV2" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="EV2" s="41" t="s">
+      <c r="EW2" s="41" t="s">
         <v>277</v>
       </c>
-      <c r="EW2" s="41" t="s">
+      <c r="EX2" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="EX2" s="41" t="s">
+      <c r="EY2" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="EY2" s="41" t="s">
+      <c r="EZ2" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="EZ2" s="41" t="s">
+      <c r="FA2" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="FA2" s="41" t="s">
+      <c r="FB2" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="FB2" s="41" t="s">
+      <c r="FC2" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="FC2" s="41" t="s">
+      <c r="FD2" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="FD2" s="41" t="s">
+      <c r="FE2" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="FE2" s="41" t="s">
+      <c r="FF2" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="FF2" s="41" t="s">
+      <c r="FG2" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="FG2" s="41" t="s">
+      <c r="FH2" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="FH2" s="41" t="s">
+      <c r="FI2" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="FI2" s="41" t="s">
+      <c r="FJ2" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="FJ2" s="41" t="s">
+      <c r="FK2" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="FK2" s="41" t="s">
+      <c r="FL2" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="FL2" s="41" t="s">
+      <c r="FM2" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="FM2" s="41" t="s">
+      <c r="FN2" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="FN2" s="41" t="s">
+      <c r="FO2" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="FO2" s="41" t="s">
+      <c r="FP2" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="FP2" s="41" t="s">
+      <c r="FQ2" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="FQ2" s="41" t="s">
+      <c r="FR2" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="FR2" s="41" t="s">
+      <c r="FS2" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="FS2" s="41" t="s">
+      <c r="FT2" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="FT2" s="41" t="s">
+      <c r="FU2" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="FU2" s="21" t="s">
+      <c r="FV2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="FV2" s="21" t="s">
+      <c r="FW2" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:178" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:179" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
@@ -3496,502 +3498,505 @@
       <c r="L3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="P3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="Q3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="R3" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="S3" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="T3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="W3" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="X3" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="X3" s="36" t="s">
+      <c r="Y3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="Z3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="36" t="s">
+      <c r="AA3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AA3" s="24" t="s">
+      <c r="AB3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AC3" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="AC3" s="39" t="s">
+      <c r="AD3" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="AD3" s="23" t="s">
+      <c r="AE3" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="AE3" s="23" t="s">
+      <c r="AF3" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AG3" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="AG3" s="50" t="s">
+      <c r="AH3" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="AH3" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="AI3" s="42" t="s">
+      <c r="AI3" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="AJ3" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="AJ3" s="42" t="s">
+      <c r="AK3" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="AK3" s="42" t="s">
+      <c r="AL3" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="AL3" s="42" t="s">
+      <c r="AM3" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="AM3" s="42" t="s">
+      <c r="AN3" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="AN3" s="42" t="s">
+      <c r="AO3" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="AO3" s="42" t="s">
+      <c r="AP3" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="AP3" s="42" t="s">
+      <c r="AQ3" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="AQ3" s="42" t="s">
+      <c r="AR3" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="AR3" s="42" t="s">
+      <c r="AS3" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="AS3" s="42" t="s">
+      <c r="AT3" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="AT3" s="42" t="s">
+      <c r="AU3" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="AU3" s="42" t="s">
+      <c r="AV3" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="AV3" s="42" t="s">
+      <c r="AW3" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="AW3" s="42" t="s">
+      <c r="AX3" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="AX3" s="42" t="s">
+      <c r="AY3" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="AY3" s="42" t="s">
+      <c r="AZ3" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="AZ3" s="42" t="s">
+      <c r="BA3" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="BA3" s="42" t="s">
+      <c r="BB3" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="BB3" s="42" t="s">
+      <c r="BC3" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="BC3" s="42" t="s">
+      <c r="BD3" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="BD3" s="42" t="s">
+      <c r="BE3" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="BE3" s="42" t="s">
+      <c r="BF3" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="BF3" s="42" t="s">
+      <c r="BG3" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="BG3" s="42" t="s">
+      <c r="BH3" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="BH3" s="42" t="s">
+      <c r="BI3" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="BI3" s="42" t="s">
+      <c r="BJ3" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="BJ3" s="42" t="s">
+      <c r="BK3" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="BK3" s="42" t="s">
+      <c r="BL3" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="BL3" s="42" t="s">
+      <c r="BM3" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="BM3" s="42" t="s">
+      <c r="BN3" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="BN3" s="42" t="s">
+      <c r="BO3" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="BO3" s="42" t="s">
+      <c r="BP3" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="BP3" s="42" t="s">
+      <c r="BQ3" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="BQ3" s="42" t="s">
+      <c r="BR3" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="BR3" s="42" t="s">
+      <c r="BS3" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="BS3" s="42" t="s">
+      <c r="BT3" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="BT3" s="42" t="s">
+      <c r="BU3" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="BU3" s="42" t="s">
+      <c r="BV3" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="BV3" s="42" t="s">
+      <c r="BW3" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="BW3" s="42" t="s">
+      <c r="BX3" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="BX3" s="42" t="s">
+      <c r="BY3" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="BY3" s="42" t="s">
+      <c r="BZ3" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="BZ3" s="42" t="s">
+      <c r="CA3" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="CA3" s="42" t="s">
+      <c r="CB3" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="CB3" s="42" t="s">
+      <c r="CC3" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="CC3" s="42" t="s">
+      <c r="CD3" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="CD3" s="42" t="s">
+      <c r="CE3" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="CE3" s="42" t="s">
+      <c r="CF3" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="CF3" s="42" t="s">
+      <c r="CG3" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="CG3" s="42" t="s">
+      <c r="CH3" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="CH3" s="42" t="s">
+      <c r="CI3" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="CI3" s="42" t="s">
+      <c r="CJ3" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="CJ3" s="42" t="s">
+      <c r="CK3" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="CK3" s="42" t="s">
+      <c r="CL3" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="CL3" s="42" t="s">
+      <c r="CM3" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="CM3" s="42" t="s">
+      <c r="CN3" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="CN3" s="42" t="s">
+      <c r="CO3" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="CO3" s="42" t="s">
+      <c r="CP3" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="CP3" s="42" t="s">
+      <c r="CQ3" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="CQ3" s="42" t="s">
+      <c r="CR3" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="CR3" s="42" t="s">
+      <c r="CS3" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="CS3" s="42" t="s">
+      <c r="CT3" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="CT3" s="42" t="s">
+      <c r="CU3" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="CU3" s="42" t="s">
+      <c r="CV3" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="CV3" s="42" t="s">
+      <c r="CW3" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="CW3" s="42" t="s">
+      <c r="CX3" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="CX3" s="42" t="s">
+      <c r="CY3" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="CY3" s="42" t="s">
+      <c r="CZ3" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="CZ3" s="42" t="s">
+      <c r="DA3" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="DA3" s="42" t="s">
+      <c r="DB3" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="DB3" s="42" t="s">
+      <c r="DC3" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="DC3" s="42" t="s">
+      <c r="DD3" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="DD3" s="42" t="s">
+      <c r="DE3" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="DE3" s="42" t="s">
+      <c r="DF3" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="DF3" s="42" t="s">
+      <c r="DG3" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="DG3" s="42" t="s">
+      <c r="DH3" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="DH3" s="42" t="s">
+      <c r="DI3" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="DI3" s="42" t="s">
+      <c r="DJ3" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="DJ3" s="42" t="s">
+      <c r="DK3" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="DK3" s="42" t="s">
+      <c r="DL3" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="DL3" s="42" t="s">
+      <c r="DM3" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="DM3" s="42" t="s">
+      <c r="DN3" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="DN3" s="42" t="s">
+      <c r="DO3" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="DO3" s="42" t="s">
+      <c r="DP3" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="DP3" s="42" t="s">
+      <c r="DQ3" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="DQ3" s="42" t="s">
+      <c r="DR3" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="DR3" s="42" t="s">
+      <c r="DS3" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="DS3" s="42" t="s">
+      <c r="DT3" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="DT3" s="42" t="s">
+      <c r="DU3" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="DU3" s="42" t="s">
+      <c r="DV3" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="DV3" s="42" t="s">
+      <c r="DW3" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="DW3" s="42" t="s">
+      <c r="DX3" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="DX3" s="42" t="s">
+      <c r="DY3" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="DY3" s="42" t="s">
+      <c r="DZ3" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="DZ3" s="42" t="s">
+      <c r="EA3" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="EA3" s="42" t="s">
+      <c r="EB3" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="EB3" s="42" t="s">
+      <c r="EC3" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="EC3" s="42" t="s">
+      <c r="ED3" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="ED3" s="42" t="s">
+      <c r="EE3" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="EE3" s="42" t="s">
+      <c r="EF3" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="EF3" s="42" t="s">
+      <c r="EG3" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="EG3" s="42" t="s">
+      <c r="EH3" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="EH3" s="42" t="s">
+      <c r="EI3" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="EI3" s="42" t="s">
+      <c r="EJ3" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="EJ3" s="42" t="s">
+      <c r="EK3" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="EK3" s="42" t="s">
+      <c r="EL3" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="EL3" s="42" t="s">
+      <c r="EM3" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="EM3" s="42" t="s">
+      <c r="EN3" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="EN3" s="42" t="s">
+      <c r="EO3" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="EO3" s="42" t="s">
+      <c r="EP3" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="EP3" s="42" t="s">
+      <c r="EQ3" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="EQ3" s="42" t="s">
+      <c r="ER3" s="42" t="s">
         <v>406</v>
       </c>
-      <c r="ER3" s="42" t="s">
+      <c r="ES3" s="42" t="s">
         <v>407</v>
       </c>
-      <c r="ES3" s="42" t="s">
+      <c r="ET3" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="ET3" s="42" t="s">
+      <c r="EU3" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="EU3" s="42" t="s">
+      <c r="EV3" s="42" t="s">
         <v>410</v>
       </c>
-      <c r="EV3" s="42" t="s">
+      <c r="EW3" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="EW3" s="42" t="s">
+      <c r="EX3" s="42" t="s">
         <v>412</v>
       </c>
-      <c r="EX3" s="42" t="s">
+      <c r="EY3" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="EY3" s="42" t="s">
+      <c r="EZ3" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="EZ3" s="42" t="s">
+      <c r="FA3" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="FA3" s="42" t="s">
+      <c r="FB3" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="FB3" s="42" t="s">
+      <c r="FC3" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="FC3" s="42" t="s">
+      <c r="FD3" s="42" t="s">
         <v>418</v>
       </c>
-      <c r="FD3" s="42" t="s">
+      <c r="FE3" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="FE3" s="42" t="s">
+      <c r="FF3" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="FF3" s="42" t="s">
+      <c r="FG3" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="FG3" s="42" t="s">
+      <c r="FH3" s="42" t="s">
         <v>422</v>
       </c>
-      <c r="FH3" s="42" t="s">
+      <c r="FI3" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="FI3" s="42" t="s">
+      <c r="FJ3" s="42" t="s">
         <v>424</v>
       </c>
-      <c r="FJ3" s="42" t="s">
+      <c r="FK3" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="FK3" s="42" t="s">
+      <c r="FL3" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="FL3" s="42" t="s">
+      <c r="FM3" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="FM3" s="42" t="s">
+      <c r="FN3" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="FN3" s="42" t="s">
+      <c r="FO3" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="FO3" s="42" t="s">
+      <c r="FP3" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="FP3" s="42" t="s">
+      <c r="FQ3" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="FQ3" s="42" t="s">
+      <c r="FR3" s="42" t="s">
         <v>432</v>
       </c>
-      <c r="FR3" s="42" t="s">
+      <c r="FS3" s="42" t="s">
         <v>433</v>
       </c>
-      <c r="FS3" s="42" t="s">
+      <c r="FT3" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="FT3" s="42" t="s">
+      <c r="FU3" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="FU3" s="25"/>
       <c r="FV3" s="25"/>
-    </row>
-    <row r="4" spans="1:178" x14ac:dyDescent="0.35">
+      <c r="FW3" s="25"/>
+    </row>
+    <row r="4" spans="1:179" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>78</v>
       </c>
@@ -4023,58 +4028,61 @@
         <v>145</v>
       </c>
       <c r="M4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="O4" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="P4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="S4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="T4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="X4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="Z4" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="AA4" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AE4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AF4" s="14" t="s">
+      <c r="AG4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AI4" s="14" t="s">
+      <c r="AJ4" s="14" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="5" spans="1:178" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:179" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>78</v>
       </c>
@@ -4085,79 +4093,82 @@
         <v>79</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="M5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="O5" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="P5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="R5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="S5" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="T5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="V5" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="V5" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="W5" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="X5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Z5" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="AA5" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AA5" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AB5" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD5" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AD5" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AE5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AI5" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:178" x14ac:dyDescent="0.35">
+      <c r="AJ5" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:179" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>78</v>
       </c>
@@ -4168,79 +4179,82 @@
         <v>79</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="M6" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="N6" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>107</v>
-      </c>
       <c r="O6" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="S6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="T6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="V6" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="W6" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="X6" s="32" t="s">
-        <v>455</v>
+        <v>74</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="Y6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="AA6" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AA6" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AB6" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AD6" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF6" s="14" t="s">
+      <c r="AE6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG6" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AI6" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:178" x14ac:dyDescent="0.35">
+      <c r="AJ6" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:179" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>78</v>
       </c>
@@ -4251,7 +4265,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>159</v>
@@ -4271,59 +4285,59 @@
       <c r="L7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="R7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="S7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="T7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="V7" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="W7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="X7" s="32" t="s">
+      <c r="X7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y7" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Y7" s="32" t="s">
+      <c r="Z7" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="Z7" s="32" t="s">
+      <c r="AA7" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AA7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC7" s="14" t="s">
-        <v>109</v>
+      <c r="AB7" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="AD7" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE7" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="AF7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI7" s="14" t="s">
+      <c r="AG7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ7" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:178" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:179" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>78</v>
       </c>
@@ -4334,7 +4348,7 @@
         <v>79</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>159</v>
@@ -4354,62 +4368,59 @@
       <c r="L8" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="P8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="R8" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="S8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="T8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="V8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="W8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y8" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z8" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA8" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ8" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="W8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="X8" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z8" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA8" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC8" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI8" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="AJ8" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:178" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:179" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>78</v>
       </c>
@@ -4420,10 +4431,10 @@
         <v>79</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>94</v>
@@ -4440,62 +4451,59 @@
       <c r="L9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="N9" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="O9" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="P9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="R9" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="S9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="T9" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="V9" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="W9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="X9" s="32" t="s">
-        <v>456</v>
+      <c r="X9" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="Y9" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z9" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="Z9" s="32" t="s">
+      <c r="AA9" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AA9" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC9" s="14" t="s">
+      <c r="AB9" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD9" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="AD9" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI9" s="14" t="s">
-        <v>448</v>
+      <c r="AE9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="AJ9" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:178" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:179" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>78</v>
       </c>
@@ -4506,76 +4514,82 @@
         <v>79</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10" s="37">
-        <v>144</v>
+        <v>85</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="U10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="W10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="X10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y10" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="Y10" s="32" t="s">
+      <c r="Z10" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="Z10" s="32" t="s">
+      <c r="AA10" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AA10" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC10" s="14" t="s">
-        <v>108</v>
+      <c r="AB10" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG10" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:178" x14ac:dyDescent="0.35">
+      <c r="AJ10" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="AK10" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:179" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>78</v>
       </c>
@@ -4586,76 +4600,82 @@
         <v>79</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" s="37">
-        <v>144</v>
+      <c r="N11" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="U11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="W11" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="X11" s="32" t="s">
-        <v>457</v>
+      <c r="X11" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="Y11" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="Z11" s="32" t="s">
+      <c r="AA11" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AA11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC11" s="14" t="s">
-        <v>108</v>
+      <c r="AB11" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="AD11" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF11" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG11" s="14" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:178" x14ac:dyDescent="0.35">
+      <c r="AJ11" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK11" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:179" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>78</v>
       </c>
@@ -4666,76 +4686,76 @@
         <v>79</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="N12" s="37">
+      <c r="O12" s="37">
         <v>144</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="P12" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="Q12" s="14" t="s">
+      <c r="R12" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="S12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="T12" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="U12" s="14" t="s">
+      <c r="V12" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="V12" s="14" t="s">
-        <v>104</v>
-      </c>
       <c r="W12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="X12" s="32" t="s">
-        <v>459</v>
+        <v>99</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="Y12" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z12" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="Z12" s="32" t="s">
+      <c r="AA12" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC12" s="14" t="s">
+      <c r="AB12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD12" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AD12" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF12" s="14" t="s">
+      <c r="AE12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG12" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:178" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:179" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>78</v>
       </c>
@@ -4746,10 +4766,10 @@
         <v>79</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>93</v>
@@ -4766,52 +4786,212 @@
       <c r="L13" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="N13" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="37">
+      <c r="O13" s="37">
         <v>144</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="P13" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="Q13" s="14" t="s">
+      <c r="R13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="S13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="T13" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="U13" s="14" t="s">
+      <c r="V13" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="W13" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="X13" s="32" t="s">
-        <v>458</v>
+      <c r="X13" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="Y13" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z13" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="Z13" s="32" t="s">
+      <c r="AA13" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="AA13" s="14" t="s">
+      <c r="AB13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG13" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:179" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="37">
+        <v>144</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="X14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y14" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z14" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA14" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE14" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG14" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:179" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="37">
+        <v>144</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="X15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y15" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z15" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA15" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB15" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="AC13" s="14" t="s">
+      <c r="AD15" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AD13" s="14" t="s">
+      <c r="AE15" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AF13" s="14" t="s">
+      <c r="AG15" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4829,29 +5009,29 @@
   <dimension ref="A1:U145"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.54296875" style="1" customWidth="1"/>
-    <col min="9" max="15" width="20.81640625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="31.08984375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.453125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
+    <col min="9" max="15" width="20.85546875" style="14" customWidth="1"/>
+    <col min="16" max="16" width="31.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.42578125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -4876,7 +5056,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
@@ -4884,10 +5064,10 @@
         <v>47</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>49</v>
@@ -4929,7 +5109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -4937,10 +5117,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -4994,7 +5174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
         <v>302</v>
       </c>
@@ -5023,7 +5203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
         <v>304</v>
       </c>
@@ -5048,7 +5228,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="51" t="s">
         <v>306</v>
       </c>
@@ -5067,7 +5247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="51" t="s">
         <v>308</v>
       </c>
@@ -5086,7 +5266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="51" t="s">
         <v>310</v>
       </c>
@@ -5102,7 +5282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="51" t="s">
         <v>312</v>
       </c>
@@ -5121,7 +5301,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="51" t="s">
         <v>314</v>
       </c>
@@ -5137,7 +5317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
         <v>316</v>
       </c>
@@ -5153,31 +5333,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="52" t="s">
         <v>318</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="51" t="s">
         <v>444</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
         <v>322</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
       <c r="E14" s="67" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G14" s="67"/>
       <c r="H14" s="70"/>
@@ -5188,30 +5368,30 @@
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="68" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P14" s="67" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q14" s="69" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="R14" s="70"/>
       <c r="S14" s="67" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="51" t="s">
         <v>445</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
       <c r="E15" s="67" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G15" s="67"/>
       <c r="H15" s="70"/>
@@ -5222,30 +5402,30 @@
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
       <c r="O15" s="68" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P15" s="67" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q15" s="69" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="R15" s="70"/>
       <c r="S15" s="67" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="51" t="s">
         <v>326</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
       <c r="E16" s="67" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G16" s="67"/>
       <c r="H16" s="70"/>
@@ -5256,776 +5436,776 @@
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
       <c r="O16" s="68" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P16" s="67" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="69" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="R16" s="70"/>
       <c r="S16" s="67" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>328</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="51" t="s">
         <v>330</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>332</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
         <v>334</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>336</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="51" t="s">
         <v>338</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
         <v>340</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="51" t="s">
         <v>342</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="51" t="s">
         <v>344</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
         <v>346</v>
       </c>
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="51" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="51" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
         <v>348</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="51" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="51" t="s">
         <v>350</v>
       </c>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="51" t="s">
         <v>352</v>
       </c>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>354</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="51" t="s">
         <v>356</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>358</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="51" t="s">
         <v>360</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="51" t="s">
         <v>362</v>
       </c>
       <c r="C37" s="51"/>
       <c r="D37" s="51"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="51" t="s">
         <v>364</v>
       </c>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="51" t="s">
         <v>366</v>
       </c>
       <c r="C39" s="51"/>
       <c r="D39" s="51"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="53" t="s">
         <v>368</v>
       </c>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="51" t="s">
         <v>370</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="51"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="51" t="s">
         <v>372</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="51" t="s">
         <v>374</v>
       </c>
       <c r="C43" s="51"/>
       <c r="D43" s="51"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="53" t="s">
         <v>376</v>
       </c>
       <c r="C44" s="53"/>
       <c r="D44" s="53"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="54" t="s">
         <v>378</v>
       </c>
       <c r="C45" s="54"/>
       <c r="D45" s="54"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="51" t="s">
         <v>380</v>
       </c>
       <c r="C46" s="51"/>
       <c r="D46" s="51"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="51" t="s">
         <v>382</v>
       </c>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="51" t="s">
         <v>384</v>
       </c>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="51" t="s">
         <v>386</v>
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="51"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>388</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="51" t="s">
         <v>390</v>
       </c>
       <c r="C51" s="51"/>
       <c r="D51" s="51"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="51" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="51"/>
       <c r="D52" s="51"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="51" t="s">
         <v>392</v>
       </c>
       <c r="C53" s="51"/>
       <c r="D53" s="51"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="55" t="s">
         <v>394</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="s">
         <v>396</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>398</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="55" t="s">
         <v>400</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="56" t="s">
         <v>402</v>
       </c>
       <c r="C58" s="56"/>
       <c r="D58" s="56"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="57" t="s">
         <v>404</v>
       </c>
       <c r="C59" s="57"/>
       <c r="D59" s="57"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>406</v>
       </c>
       <c r="C60"/>
       <c r="D60"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="58" t="s">
         <v>408</v>
       </c>
       <c r="C61" s="58"/>
       <c r="D61" s="58"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="55" t="s">
         <v>410</v>
       </c>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="55" t="s">
         <v>412</v>
       </c>
       <c r="C63" s="55"/>
       <c r="D63" s="55"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="55" t="s">
         <v>414</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="55" t="s">
         <v>416</v>
       </c>
       <c r="C65" s="55"/>
       <c r="D65" s="55"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="s">
         <v>418</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="55"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="55" t="s">
         <v>420</v>
       </c>
       <c r="C67" s="55"/>
       <c r="D67" s="55"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="55" t="s">
         <v>422</v>
       </c>
       <c r="C68" s="55"/>
       <c r="D68" s="55"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="55" t="s">
         <v>424</v>
       </c>
       <c r="C69" s="55"/>
       <c r="D69" s="55"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="57" t="s">
         <v>426</v>
       </c>
       <c r="C70" s="57"/>
       <c r="D70" s="57"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="56" t="s">
         <v>428</v>
       </c>
       <c r="C71" s="56"/>
       <c r="D71" s="56"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="55" t="s">
         <v>430</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="55"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="55" t="s">
         <v>432</v>
       </c>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="55" t="s">
         <v>434</v>
       </c>
       <c r="C74" s="55"/>
       <c r="D74" s="55"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="59"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="60"/>
       <c r="C96" s="60"/>
       <c r="D96" s="60"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
       <c r="D97" s="60"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
       <c r="D99" s="59"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
       <c r="D100" s="59"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
       <c r="D101" s="59"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
       <c r="D102" s="59"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
       <c r="D103" s="59"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="60"/>
       <c r="C104" s="60"/>
       <c r="D104" s="60"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="60"/>
       <c r="C105" s="60"/>
       <c r="D105" s="60"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="60"/>
       <c r="C106" s="60"/>
       <c r="D106" s="60"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="60"/>
       <c r="C107" s="60"/>
       <c r="D107" s="60"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="60"/>
       <c r="C108" s="60"/>
       <c r="D108" s="60"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="60"/>
       <c r="C109" s="60"/>
       <c r="D109" s="60"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="60"/>
       <c r="C110" s="60"/>
       <c r="D110" s="60"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="60"/>
       <c r="C111" s="60"/>
       <c r="D111" s="60"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="61"/>
       <c r="C112" s="61"/>
       <c r="D112" s="61"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="61"/>
       <c r="C113" s="61"/>
       <c r="D113" s="61"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="62"/>
       <c r="C114" s="62"/>
       <c r="D114" s="62"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="62"/>
       <c r="C115" s="62"/>
       <c r="D115" s="62"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="60"/>
       <c r="C116" s="60"/>
       <c r="D116" s="60"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="60"/>
       <c r="C117" s="60"/>
       <c r="D117" s="60"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="63"/>
       <c r="C118" s="63"/>
       <c r="D118" s="63"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="63"/>
       <c r="C119" s="63"/>
       <c r="D119" s="63"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="60"/>
       <c r="C120" s="60"/>
       <c r="D120" s="60"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="60"/>
       <c r="C121" s="60"/>
       <c r="D121" s="60"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="60"/>
       <c r="C122" s="60"/>
       <c r="D122" s="60"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="60"/>
       <c r="C123" s="60"/>
       <c r="D123" s="60"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="60"/>
       <c r="C124" s="60"/>
       <c r="D124" s="60"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="60"/>
       <c r="C125" s="60"/>
       <c r="D125" s="60"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="60"/>
       <c r="C126" s="60"/>
       <c r="D126" s="60"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="60"/>
       <c r="C127" s="60"/>
       <c r="D127" s="60"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="60"/>
       <c r="C128" s="60"/>
       <c r="D128" s="60"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="60"/>
       <c r="C129" s="60"/>
       <c r="D129" s="60"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="60"/>
       <c r="C130" s="60"/>
       <c r="D130" s="60"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="60"/>
       <c r="C131" s="60"/>
       <c r="D131" s="60"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="60"/>
       <c r="C132" s="60"/>
       <c r="D132" s="60"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="60"/>
       <c r="C133" s="60"/>
       <c r="D133" s="60"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="60"/>
       <c r="C134" s="60"/>
       <c r="D134" s="60"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="60"/>
       <c r="C135" s="60"/>
       <c r="D135" s="60"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="62"/>
       <c r="C136" s="62"/>
       <c r="D136" s="62"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="62"/>
       <c r="C137" s="62"/>
       <c r="D137" s="62"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="61"/>
       <c r="C138" s="61"/>
       <c r="D138" s="61"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="61"/>
       <c r="C139" s="61"/>
       <c r="D139" s="61"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="60"/>
       <c r="C140" s="60"/>
       <c r="D140" s="60"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="60"/>
       <c r="C141" s="60"/>
       <c r="D141" s="60"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="60"/>
       <c r="C142" s="60"/>
       <c r="D142" s="60"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="60"/>
       <c r="C143" s="60"/>
       <c r="D143" s="60"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="60"/>
       <c r="C144" s="60"/>
       <c r="D144" s="60"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="60"/>
       <c r="C145" s="60"/>
       <c r="D145" s="60"/>
